--- a/Excel/Role基础数据.xlsx
+++ b/Excel/Role基础数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 普通攻击</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1代表没有</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,200|2,100|3,5|4,10|5,2|6,6|7,3|8,1|9,7|10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0.5,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +221,38 @@
   </si>
   <si>
     <t>0,0.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadWeaponIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200|2,100|3,5|4,10|5,2|6,6|7,10|8,1|9,7|10,10|11,1000|12,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200|2,100|3,5|4,10|5,2|6,6|7,10|8,1|9,7|10,10|11,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200|2,100|3,5|4,10|5,2|6,6|7,10|8,1|9,7|10,10|11,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200|2,100|3,5|4,10|5,2|6,6|7,10|8,1|9,7|10,10|11,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200|2,100|3,5|4,10|5,2|6,6|7,10|8,1|9,7|10,10|11,1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +274,34 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,8 +324,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -513,35 +630,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="4" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="49.25" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -567,10 +685,14 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -596,10 +718,13 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -625,10 +750,13 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -653,11 +781,14 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -677,16 +808,19 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -706,16 +840,19 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -735,16 +872,19 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>34</v>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -769,13 +909,17 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>